--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3129236.405611121</v>
+        <v>3126383.370668715</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587981</v>
+        <v>8444421.381715728</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8646437.866494879</v>
+        <v>8646274.327015175</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>101.0111031237836</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
-        <v>237.1978555715006</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>5.983388191319829</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.3315992629827</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>139.652855120685</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.26252137233877</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955349</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.30079766335513</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993785</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.7268717888058</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492312</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2129851421118</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>118.9645187111851</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.7793708383992</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>61.99218681250218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>200.2234249616288</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>84.69473660442827</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,13 +2533,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>200.1941765543137</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513406</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787801</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>91.86523251792184</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898774</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>282.7746176012457</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787801</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>65.52002404038561</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T31" t="n">
-        <v>70.1793003268612</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787801</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>10.43222108085008</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125476</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>104.61209451888</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>83.0773672326534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>110.4561601238612</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.9219961017574</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>81.29960811897726</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>87.56163230992594</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H43" t="n">
-        <v>23.94516103140371</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>20.23175190293136</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.034856231149433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>86.40642462889349</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.4006205789093258</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>62.15620676648905</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>68.76846803530522</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1370.712364606781</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.712364606781</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1370.712364606781</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>984.9241120085362</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>573.9382072189287</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>155.9743991171156</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>155.9743991171156</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.451536646714</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.312204670902</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452406</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452406</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>2549.002432452406</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>2309.40863894584</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340179</v>
+        <v>854.9003034538794</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936061</v>
+        <v>485.9377865134676</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685564</v>
+        <v>127.6720879067171</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>127.6720879067171</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575137</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>106.8031830961046</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>106.8031830961046</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.68376869814</v>
+        <v>854.9003034538794</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4744,19 +4744,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
         <v>343.3601518573251</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2648.399069430002</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2648.399069430002</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2648.399069430002</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005475</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005475</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,19 +5042,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
         <v>95.56103444839442</v>
@@ -5206,43 +5206,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433623</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1545.250526232427</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1256.147659358071</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1001.463171152184</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W16" t="n">
-        <v>712.0460011152231</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>484.0564502172058</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.2638710736757</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5595,7 +5595,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015824</v>
+        <v>659.9741347416141</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736755</v>
+        <v>659.974134741614</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>509.8574953292783</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>361.9444017468852</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>361.9444017468852</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783403</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413796</v>
+        <v>841.6225995718538</v>
       </c>
       <c r="X19" t="n">
-        <v>432.2000540015824</v>
+        <v>841.6225995718538</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015824</v>
+        <v>841.6225995718538</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5789,7 +5789,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.4810578558177</v>
+        <v>411.3871648742115</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,10 +5908,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.339271866548</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>811.9221018295875</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>811.9221018295875</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>591.1295226860574</v>
+        <v>411.3871648742115</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4704.725325593106</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.1112734427664</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C25" t="n">
-        <v>181.1112734427664</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
-        <v>181.1112734427664</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>181.1112734427664</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>181.1112734427664</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145537</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X25" t="n">
-        <v>583.5523174165363</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y25" t="n">
-        <v>362.7597382730061</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425631</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878469</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280225</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906174</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760586</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J26" t="n">
-        <v>357.104753288607</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030698</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675075</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054108</v>
+        <v>2141.113425729797</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028839</v>
+        <v>3015.483207940954</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300296</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646627</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670196</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.05803957324</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223258</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.51859734033</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996759</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465565</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489753</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E27" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F27" t="n">
-        <v>318.554370397138</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044003</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J27" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K27" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="L27" t="n">
-        <v>260.7931424681773</v>
+        <v>575.6519763813068</v>
       </c>
       <c r="M27" t="n">
-        <v>826.3725024041048</v>
+        <v>1157.105066408552</v>
       </c>
       <c r="N27" t="n">
-        <v>1421.329709979374</v>
+        <v>1760.828608302255</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.379525386857</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.03746073281</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.0422178000882</v>
+        <v>643.6196470128004</v>
       </c>
       <c r="C28" t="n">
-        <v>877.0422178000882</v>
+        <v>474.6834640848936</v>
       </c>
       <c r="D28" t="n">
-        <v>784.2490536405712</v>
+        <v>324.5668246725579</v>
       </c>
       <c r="E28" t="n">
-        <v>636.3359600581781</v>
+        <v>324.5668246725579</v>
       </c>
       <c r="F28" t="n">
-        <v>489.4460125602677</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="G28" t="n">
-        <v>322.1425610216738</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="H28" t="n">
-        <v>179.4762707375322</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461523</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603208</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532475</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371896</v>
+        <v>808.6157121185347</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396753</v>
+        <v>2325.418315136072</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.274661052483</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174218</v>
+        <v>1921.795351331811</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940953</v>
+        <v>1632.71719213018</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735066</v>
+        <v>1378.032703924293</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698106</v>
+        <v>1092.401777054348</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000882</v>
+        <v>864.4122261563306</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.0422178000882</v>
+        <v>643.6196470128004</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F29" t="n">
-        <v>804.479751490616</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760572</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886069</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030697</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675075</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054106</v>
+        <v>2141.113425729797</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028837</v>
+        <v>2864.492643589322</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300294</v>
+        <v>3534.223865147016</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646625</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670194</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223256</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585043998</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421376</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K30" t="n">
-        <v>545.609818506716</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="L30" t="n">
-        <v>1013.685713517276</v>
+        <v>575.6519763813068</v>
       </c>
       <c r="M30" t="n">
-        <v>1579.265073453203</v>
+        <v>1157.105066408552</v>
       </c>
       <c r="N30" t="n">
-        <v>2174.222281028472</v>
+        <v>1768.356134476898</v>
       </c>
       <c r="O30" t="n">
-        <v>2560.279010110498</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.4988349005102</v>
+        <v>458.1849390155443</v>
       </c>
       <c r="C31" t="n">
-        <v>639.5626519726034</v>
+        <v>392.0030965505083</v>
       </c>
       <c r="D31" t="n">
-        <v>489.4460125602677</v>
+        <v>241.8864571381725</v>
       </c>
       <c r="E31" t="n">
-        <v>489.4460125602677</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F31" t="n">
-        <v>489.4460125602677</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G31" t="n">
-        <v>322.1425610216738</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375321</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532474</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371896</v>
+        <v>808.615712118534</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396754</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396754</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S31" t="n">
-        <v>2343.000352396754</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T31" t="n">
-        <v>2272.11217024841</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U31" t="n">
-        <v>1983.031088015145</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V31" t="n">
-        <v>1728.346599809258</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W31" t="n">
-        <v>1438.929429772297</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X31" t="n">
-        <v>1210.93987887428</v>
+        <v>860.6259829893141</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.14729973075</v>
+        <v>639.833403845784</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760576</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886069</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030697</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.671231675075</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M32" t="n">
-        <v>2077.431500141432</v>
+        <v>2292.10399008143</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028837</v>
+        <v>3015.483207940954</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300294</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646625</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670194</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585043998</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421376</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K33" t="n">
-        <v>545.609818506716</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="L33" t="n">
-        <v>1013.685713517276</v>
+        <v>568.1244502066635</v>
       </c>
       <c r="M33" t="n">
-        <v>1579.265073453203</v>
+        <v>1149.577540233909</v>
       </c>
       <c r="N33" t="n">
-        <v>2174.222281028472</v>
+        <v>1760.828608302255</v>
       </c>
       <c r="O33" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.7285223907078</v>
+        <v>641.9333267102031</v>
       </c>
       <c r="C34" t="n">
-        <v>392.1909253393441</v>
+        <v>641.9333267102031</v>
       </c>
       <c r="D34" t="n">
-        <v>242.0742859270083</v>
+        <v>491.8166872978674</v>
       </c>
       <c r="E34" t="n">
-        <v>94.16119234461522</v>
+        <v>491.8166872978674</v>
       </c>
       <c r="F34" t="n">
-        <v>94.16119234461522</v>
+        <v>344.926739799957</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16119234461522</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461522</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603208</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532476</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371897</v>
+        <v>808.615712118534</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961143</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616872</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738607</v>
+        <v>1921.795351331811</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.260775505343</v>
+        <v>1632.71719213018</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.576287299456</v>
+        <v>1378.032703924293</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.159117262495</v>
+        <v>1272.36392158199</v>
       </c>
       <c r="X34" t="n">
-        <v>805.1695663644776</v>
+        <v>1044.374370683973</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.3769872209475</v>
+        <v>823.5817915404429</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2141.113425729797</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2864.492643589322</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3534.223865147016</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>237.6818203523166</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>286.0758324764603</v>
       </c>
       <c r="L36" t="n">
-        <v>142.676769632785</v>
+        <v>767.7544453019876</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849127</v>
+        <v>1349.207535329233</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1349.207535329233</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475996</v>
+        <v>458.1849390155455</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1791823893639</v>
+        <v>289.2487560876386</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0625429770282</v>
+        <v>289.2487560876386</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>289.2487560876386</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185336</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1632.71719213018</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1378.032703924293</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213695</v>
+        <v>860.6259829893154</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778393</v>
+        <v>639.8334038457853</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>798.3431983526646</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276571</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015196</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892015</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2292.10399008143</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>3015.483207940954</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>237.6818203523166</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>561.4572872887499</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310563</v>
+        <v>1043.135900114277</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.755759562691</v>
+        <v>1043.135900114277</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.851722962027</v>
+        <v>1349.207535329233</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890985</v>
+        <v>557.7125875639898</v>
       </c>
       <c r="C40" t="n">
-        <v>562.9550599890985</v>
+        <v>388.7764046360829</v>
       </c>
       <c r="D40" t="n">
-        <v>412.8384205767627</v>
+        <v>388.7764046360829</v>
       </c>
       <c r="E40" t="n">
-        <v>264.9253269943696</v>
+        <v>240.8633110536898</v>
       </c>
       <c r="F40" t="n">
-        <v>264.9253269943696</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G40" t="n">
-        <v>264.9253269943696</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411603</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117242</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948584</v>
+        <v>808.615712118534</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946054</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335694</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074624</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789006</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628683</v>
+        <v>860.6259829893152</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193382</v>
+        <v>639.833403845785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>384.280576027657</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>977.5623751161838</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1584.783761381633</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2292.10399008143</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>3015.483207940954</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084599</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>417.7488304922127</v>
       </c>
       <c r="L42" t="n">
-        <v>572.0050724668117</v>
+        <v>899.42744331774</v>
       </c>
       <c r="M42" t="n">
-        <v>1164.023426718939</v>
+        <v>1480.880533344985</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.119390118276</v>
+        <v>2092.131601413332</v>
       </c>
       <c r="O42" t="n">
-        <v>2332.99586511847</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890985</v>
+        <v>727.1659960192418</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599890985</v>
+        <v>558.2298130913349</v>
       </c>
       <c r="D43" t="n">
-        <v>412.8384205767627</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="E43" t="n">
-        <v>264.9253269943696</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="F43" t="n">
-        <v>118.0353794964593</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="G43" t="n">
-        <v>118.0353794964593</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185345</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1632.71719213018</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1378.032703924293</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1357.596590891029</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>1129.607039993012</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>908.8144608494815</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037482</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556051</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148058</v>
+        <v>366.8547825927166</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112153</v>
+        <v>826.5718107645514</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2292.10399008143</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>3015.483207940954</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720299</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>237.6818203523166</v>
       </c>
       <c r="K45" t="n">
-        <v>577.4197628504824</v>
+        <v>561.4572872887499</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.745369066241</v>
+        <v>1043.135900114277</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.123856692793</v>
+        <v>1043.135900114277</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.123856692793</v>
+        <v>1349.207535329233</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.9309895913045</v>
+        <v>577.049356606906</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7680286442463</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6513892319105</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>426.0511968217957</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>808.6157121185342</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2394.881414161632</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683896</v>
+        <v>2325.418315136071</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.1399343388</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.538469361741</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.463242705939</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.778754500052</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.361584463092</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3720335650744</v>
+        <v>860.625982989314</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5794544215443</v>
+        <v>639.8334038457839</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>258.6211785616931</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>258.621178561693</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>410.4190035206667</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.45386895940527</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107843</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>152.5157215673058</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>304.5677898107825</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>152.5157215673058</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>152.5157215673055</v>
       </c>
       <c r="N32" t="n">
-        <v>304.5677898107822</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>152.5157215673058</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>152.5157215673055</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>152.5157215673054</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>152.5157215673055</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>22.51994930982207</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.335964134057353</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>47.06128954784312</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.93028455063794</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>190.1454565113258</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.36122839046598</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.33107165459995</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>51.94346676951434</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>56.75024050029052</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.748380735345336</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.7267970582422</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>147.6802500326213</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>156.8146000177778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.910903817711</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.16945386597443</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>34.96488789907008</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>98.53237206296004</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H40" t="n">
-        <v>52.89235748202798</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.5088287605502</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>266.2912464336596</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>117.6757734154482</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>82.8664784826794</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639814</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731252.7354850991</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731252.735485099</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731252.735485099</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730287.0162118567</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730287.0162118569</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730287.0162118567</v>
+        <v>730672.926476326</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730091.6035110794</v>
+        <v>730672.926476326</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846413</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="H2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="I2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078712</v>
       </c>
       <c r="J2" t="n">
-        <v>683736.7249355353</v>
+        <v>684903.7680279195</v>
       </c>
       <c r="K2" t="n">
-        <v>683736.7249355356</v>
+        <v>684903.7680279193</v>
       </c>
       <c r="L2" t="n">
-        <v>683736.7249355357</v>
+        <v>684903.7680279195</v>
       </c>
       <c r="M2" t="n">
-        <v>685680.5305507754</v>
+        <v>684903.7680279193</v>
       </c>
       <c r="N2" t="n">
-        <v>685680.5305507754</v>
+        <v>684903.7680279195</v>
       </c>
       <c r="O2" t="n">
-        <v>685680.5305507756</v>
+        <v>684903.7680279196</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>684903.7680279195</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.325073375</v>
+        <v>355203.9046935401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408575</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>8092.872670013762</v>
+        <v>6277.876132421152</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.872670013774</v>
+        <v>6277.876132421153</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.87267001377</v>
+        <v>6277.876132421148</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662911</v>
+        <v>6277.876132421153</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662965</v>
+        <v>6277.876132421133</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662903</v>
+        <v>6277.876132421148</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>6277.876132421148</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100598.1718017881</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857425</v>
+        <v>-167148.0492857429</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288018</v>
+        <v>422819.8299288021</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.829928802</v>
+        <v>422819.8299288017</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363406</v>
+        <v>-170408.6980265664</v>
       </c>
       <c r="F6" t="n">
-        <v>557035.911457066</v>
+        <v>556968.7159668404</v>
       </c>
       <c r="G6" t="n">
-        <v>557035.9114570657</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="H6" t="n">
-        <v>557035.9114570661</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="I6" t="n">
-        <v>557035.9114570656</v>
+        <v>556968.7159668399</v>
       </c>
       <c r="J6" t="n">
-        <v>241490.9683428158</v>
+        <v>222785.6338226504</v>
       </c>
       <c r="K6" t="n">
-        <v>575544.2934161909</v>
+        <v>577989.5385161904</v>
       </c>
       <c r="L6" t="n">
-        <v>575544.2934161911</v>
+        <v>577989.5385161905</v>
       </c>
       <c r="M6" t="n">
-        <v>416551.0965920163</v>
+        <v>448347.2236772456</v>
       </c>
       <c r="N6" t="n">
-        <v>579680.5753328739</v>
+        <v>577989.5385161906</v>
       </c>
       <c r="O6" t="n">
-        <v>579680.5753328742</v>
+        <v>577989.5385161906</v>
       </c>
       <c r="P6" t="n">
-        <v>573858.2180222246</v>
+        <v>577989.5385161905</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1338.459426577785</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26811,25 +26811,25 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="O4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="P4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.262412591255</v>
+        <v>248.6827259844863</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183249</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>654.4413865968681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377724</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.92021312107762</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
-        <v>14.93978775232742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.946981880942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.59971698187854</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>112.484788203143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.215881202472936</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.738070209418</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.5311825185822</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620399</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.821668104623433e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.656949185851152e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386791</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O26" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P26" t="n">
-        <v>756.749591054594</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906398</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>306.8694809147853</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855815</v>
+        <v>729.4603874848925</v>
       </c>
       <c r="N27" t="n">
-        <v>732.308588421989</v>
+        <v>741.1634715719222</v>
       </c>
       <c r="O27" t="n">
-        <v>669.9192903105893</v>
+        <v>684.975552014765</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021613</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483325</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S27" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614406</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386791</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O29" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P29" t="n">
-        <v>756.749591054594</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906398</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651742</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709029</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339748</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855815</v>
+        <v>729.4603874848925</v>
       </c>
       <c r="N30" t="n">
-        <v>732.308588421989</v>
+        <v>748.7670333644911</v>
       </c>
       <c r="O30" t="n">
-        <v>532.5525364464908</v>
+        <v>261.5931286332847</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032415</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S30" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614406</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386791</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O32" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P32" t="n">
-        <v>756.749591054594</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906398</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651742</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709029</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>611.3583141339748</v>
+        <v>617.4948713464237</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855815</v>
+        <v>729.4603874848925</v>
       </c>
       <c r="N33" t="n">
-        <v>732.308588421989</v>
+        <v>748.7670333644911</v>
       </c>
       <c r="O33" t="n">
-        <v>532.5525364464908</v>
+        <v>684.975552014765</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S33" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614406</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>186.724279503797</v>
       </c>
       <c r="L36" t="n">
-        <v>187.8760176396499</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>729.4603874848925</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>684.975552014765</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>549.7532690032415</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>464.8873651727764</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>440.5049799772279</v>
       </c>
       <c r="O39" t="n">
-        <v>422.3544583169084</v>
+        <v>684.975552014765</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032415</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>464.8873651727764</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>729.4603874848925</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>748.7670333644911</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>350.3260640237785</v>
       </c>
       <c r="P42" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.380741413378025</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.10551799975771</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>207.4410333392565</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>456.6837015336935</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>684.4504855619854</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>849.1213505916534</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>944.8111107018148</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>960.0991422425751</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>906.5943948132973</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>773.7573411705272</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>581.0595393039265</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>337.9979978081076</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4304593130702419</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.87895046471448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109067</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>464.8873651727764</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>625.0984331389927</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>440.5049799772279</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107739</v>
+        <v>684.975552014765</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>549.7532690032415</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>367.4955014256589</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>53.47524218449919</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.413615359402562</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.45923474087007</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>72.58399644457889</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>358.8387780697228</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>378.3451785652579</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>369.3489758620305</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>341.1535600726459</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>291.9158067408334</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.06273312704282</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>797.5422943919199</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35492,7 +35492,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>766.6741794499121</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>962.7208389335782</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>74.06706750163005</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090826</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K26" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858923</v>
+        <v>714.464877474542</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744757</v>
+        <v>883.2018002132901</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993245</v>
+        <v>542.5243454152576</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975442</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379451</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>168.3151011349111</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635632</v>
+        <v>587.3263535628741</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386558</v>
+        <v>609.8217594885889</v>
       </c>
       <c r="O27" t="n">
-        <v>527.3230458661449</v>
+        <v>542.3793075703205</v>
       </c>
       <c r="P27" t="n">
-        <v>403.694884187831</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.435908462311</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556115</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453859</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391732</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090826</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K29" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M29" t="n">
-        <v>998.2650306858905</v>
+        <v>714.464877474542</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744757</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993245</v>
+        <v>695.0400669825634</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975442</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379451</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985075</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965439</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541006</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635632</v>
+        <v>587.3263535628741</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386558</v>
+        <v>617.4253212811578</v>
       </c>
       <c r="O30" t="n">
-        <v>389.9562920020463</v>
+        <v>118.9968841888403</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>415.7788615889112</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556115</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453859</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391732</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090826</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K32" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751079</v>
+        <v>866.9805990418475</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.150189785258</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993245</v>
+        <v>542.5243454152576</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975442</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379451</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985075</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965439</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>472.8039343541006</v>
+        <v>478.9404915665496</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635632</v>
+        <v>587.3263535628741</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386558</v>
+        <v>617.4253212811578</v>
       </c>
       <c r="O33" t="n">
-        <v>389.9562920020463</v>
+        <v>542.3793075703205</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556115</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453859</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391732</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L35" t="n">
-        <v>677.0902038955297</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>714.464877474542</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>695.0400669825634</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>48.88284052943805</v>
       </c>
       <c r="L36" t="n">
-        <v>49.32163785977568</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>587.3263535628741</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>542.3793075703205</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>415.7788615889112</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898107</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>866.9805990418475</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152576</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>327.0459261984174</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>309.1632678938946</v>
       </c>
       <c r="O39" t="n">
-        <v>279.758213872464</v>
+        <v>542.3793075703205</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>415.7788615889112</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>616.8763560843103</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>714.464877474542</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554599</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152576</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>327.0459261984174</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>587.3263535628741</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>617.4253212811578</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>207.729819579334</v>
       </c>
       <c r="P42" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>275.6377970070072</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>464.3606345170048</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>613.3549356216661</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>866.9805990418475</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>730.6860786459843</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>676.4961833916105</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>542.5243454152576</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>358.753849429477</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>122.4124599939755</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>327.0459261984174</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>486.5440533591185</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>309.1632678938946</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663295</v>
+        <v>542.3793075703205</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>415.7788615889112</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>227.5137273396374</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.06796436278253</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>77.28342579308836</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>386.4288033300389</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>417.9290555270985</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>413.4811482412591</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>365.7386879866856</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>289.1943660057269</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>115.9453301615511</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
